--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-101_システム課題一覧(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-101_システム課題一覧(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" calcMode="manual"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -596,16 +596,6 @@
   </si>
   <si>
     <t>2018年08月29日</t>
-    <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t>TIS株式会社</t>
-    <rPh sb="1" eb="3">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイシャ</t>
-    </rPh>
     <phoneticPr fontId="12"/>
   </si>
   <si>
@@ -788,6 +778,13 @@
       </rPr>
       <t>し、解決手段ＩＤを付与する。</t>
     </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3432,9 +3429,7 @@
       <c r="G31" s="16"/>
       <c r="H31" s="12"/>
       <c r="J31" s="17"/>
-      <c r="R31" s="18" t="s">
-        <v>44</v>
-      </c>
+      <c r="R31" s="18"/>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="12"/>
@@ -3474,20 +3469,24 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="25" t="s">
         <v>45</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>46</v>
       </c>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="23"/>
       <c r="R39" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3962,7 +3961,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -3995,13 +3994,13 @@
     <row r="4" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4094,7 +4093,7 @@
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
       <c r="I18" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -4136,7 +4135,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
       <c r="I19" s="26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -4178,7 +4177,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
       <c r="I20" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -4262,7 +4261,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
       <c r="I22" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
@@ -4346,7 +4345,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
       <c r="I24" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-101_システム課題一覧(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-101_システム課題一覧(サンプル＆ガイド).xlsx
@@ -18,7 +18,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" calcMode="manual"/>
 </workbook>
 </file>
 
@@ -596,6 +596,16 @@
   </si>
   <si>
     <t>2018年08月29日</t>
+    <phoneticPr fontId="12"/>
+  </si>
+  <si>
+    <t>TIS株式会社</t>
+    <rPh sb="1" eb="3">
+      <t>カブシキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイシャ</t>
+    </rPh>
     <phoneticPr fontId="12"/>
   </si>
   <si>
@@ -778,13 +788,6 @@
       </rPr>
       <t>し、解決手段ＩＤを付与する。</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3429,7 +3432,9 @@
       <c r="G31" s="16"/>
       <c r="H31" s="12"/>
       <c r="J31" s="17"/>
-      <c r="R31" s="18"/>
+      <c r="R31" s="18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F32" s="12"/>
@@ -3469,24 +3474,20 @@
     </row>
     <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E39" s="25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="23"/>
       <c r="R39" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
+    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3961,7 +3962,7 @@
     <hyperlink ref="E39" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
@@ -3994,13 +3995,13 @@
     <row r="4" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4093,7 +4094,7 @@
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
       <c r="I18" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -4135,7 +4136,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
       <c r="I19" s="26" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -4177,7 +4178,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
       <c r="I20" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -4261,7 +4262,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
       <c r="I22" s="26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
@@ -4345,7 +4346,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
       <c r="I24" s="26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>

--- a/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-101_システム課題一覧(サンプル＆ガイド).xlsx
+++ b/docs/7-8_システム要件定義/8_システム要件定義成果物サンプル＆ガイド/成果物サンプル＆ガイド/DS-101_システム課題一覧(サンプル＆ガイド).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3702A7-2635-4EDA-96FC-0FD8F4E96BF7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="10575" windowHeight="5745"/>
+    <workbookView xWindow="10020" yWindow="3780" windowWidth="18150" windowHeight="9990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="3" r:id="rId1"/>
@@ -18,12 +19,22 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">ガイド!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">サンプル!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>課題名</t>
     <rPh sb="0" eb="2">
@@ -597,17 +608,6 @@
   <si>
     <t>2018年08月29日</t>
     <phoneticPr fontId="12"/>
-  </si>
-  <si>
-    <t xml:space="preserve">この 作品 は </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>クリエイティブ・コモンズ 表示 - 継承 4.0 国際 ライセンス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>の下に提供されています。</t>
   </si>
   <si>
     <r>
@@ -780,18 +780,11 @@
     </r>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>要件定義フレームワーク©2018 TIS INC. クリエイティブ・コモンズ・ライセンス（表示-継承 4.0 国際）</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -1215,12 +1208,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1229,6 +1216,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1309,6 +1302,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1330,7 +1326,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Text Box 7610"/>
+        <xdr:cNvPr id="2" name="Text Box 7610">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1428,52 +1430,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>94137</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="276225" y="6715125"/>
-          <a:ext cx="838200" cy="265587"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1489,7 +1445,13 @@
     <xdr:ext cx="1210588" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="テキスト ボックス 3"/>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1549,7 +1511,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1608,7 +1576,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="カギ線コネクタ 5"/>
+        <xdr:cNvPr id="6" name="カギ線コネクタ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="5" idx="3"/>
           <a:endCxn id="14" idx="1"/>
@@ -1660,7 +1634,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1723,7 +1703,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="カギ線コネクタ 7"/>
+        <xdr:cNvPr id="8" name="カギ線コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="7" idx="3"/>
           <a:endCxn id="14" idx="1"/>
@@ -1775,7 +1761,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1837,7 +1829,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1894,7 +1892,13 @@
     <xdr:ext cx="1210588" cy="359073"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1971,7 +1975,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="正方形/長方形 19"/>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2039,7 +2049,13 @@
     <xdr:ext cx="697627" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="テキスト ボックス 21"/>
+        <xdr:cNvPr id="22" name="テキスト ボックス 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2099,7 +2115,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="29" name="グループ化 28"/>
+        <xdr:cNvPr id="29" name="グループ化 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2112,7 +2134,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+          <xdr:cNvPr id="30" name="正方形/長方形 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2184,7 +2212,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+          <xdr:cNvPr id="31" name="正方形/長方形 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2267,7 +2301,13 @@
     <xdr:ext cx="1210588" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="テキスト ボックス 32"/>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2327,7 +2367,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="32" name="グループ化 31"/>
+        <xdr:cNvPr id="32" name="グループ化 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr/>
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
@@ -2340,7 +2386,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="34" name="正方形/長方形 33"/>
+          <xdr:cNvPr id="34" name="正方形/長方形 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000022000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2412,7 +2464,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="35" name="正方形/長方形 34"/>
+          <xdr:cNvPr id="35" name="正方形/長方形 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000023000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr/>
         </xdr:nvSpPr>
         <xdr:spPr>
@@ -2472,7 +2530,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="カギ線コネクタ 41"/>
+        <xdr:cNvPr id="42" name="カギ線コネクタ 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="35" idx="3"/>
           <a:endCxn id="14" idx="1"/>
@@ -2519,7 +2583,13 @@
     <xdr:ext cx="1107996" cy="492443"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="テキスト ボックス 43"/>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2609,7 +2679,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="47" name="直線矢印コネクタ 46"/>
+        <xdr:cNvPr id="47" name="直線矢印コネクタ 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="31" idx="2"/>
           <a:endCxn id="14" idx="0"/>
@@ -2659,7 +2735,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="正方形/長方形 49"/>
+        <xdr:cNvPr id="50" name="正方形/長方形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2718,7 +2800,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="カギ線コネクタ 50"/>
+        <xdr:cNvPr id="51" name="カギ線コネクタ 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="50" idx="0"/>
           <a:endCxn id="14" idx="2"/>
@@ -2770,7 +2858,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="55" name="カギ線コネクタ 54"/>
+        <xdr:cNvPr id="55" name="カギ線コネクタ 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="20" idx="0"/>
           <a:endCxn id="14" idx="2"/>
@@ -2817,7 +2911,13 @@
     <xdr:ext cx="1107996" cy="225703"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="テキスト ボックス 57"/>
+        <xdr:cNvPr id="58" name="テキスト ボックス 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2877,7 +2977,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="直線矢印コネクタ 35"/>
+        <xdr:cNvPr id="36" name="直線矢印コネクタ 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="14" idx="3"/>
           <a:endCxn id="15" idx="1"/>
@@ -2927,7 +3033,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="正方形/長方形 26"/>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3007,7 +3119,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="カギ線コネクタ 27"/>
+        <xdr:cNvPr id="28" name="カギ線コネクタ 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="27" idx="3"/>
           <a:endCxn id="14" idx="1"/>
@@ -3048,7 +3166,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3090,7 +3208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3123,9 +3241,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3158,6 +3293,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3333,7 +3485,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3443,58 +3595,47 @@
       <c r="R32" s="21"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="19"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="23"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="23"/>
       <c r="R37" s="22"/>
       <c r="S37" s="24"/>
     </row>
-    <row r="38" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="23"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="23"/>
       <c r="R38" s="22"/>
       <c r="S38" s="23"/>
     </row>
-    <row r="39" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>45</v>
-      </c>
+    <row r="39" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E39" s="25"/>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="23"/>
-      <c r="R39" s="23" t="s">
-        <v>46</v>
-      </c>
+      <c r="R39" s="23"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="2:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="5:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3957,17 +4098,14 @@
     <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="E39" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId2"/>
-  <drawing r:id="rId3"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -3994,13 +4132,13 @@
     <row r="4" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4093,7 +4231,7 @@
       <c r="G18" s="33"/>
       <c r="H18" s="34"/>
       <c r="I18" s="32" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J18" s="33"/>
       <c r="K18" s="33"/>
@@ -4135,7 +4273,7 @@
       <c r="G19" s="27"/>
       <c r="H19" s="28"/>
       <c r="I19" s="26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="J19" s="27"/>
       <c r="K19" s="27"/>
@@ -4177,7 +4315,7 @@
       <c r="G20" s="27"/>
       <c r="H20" s="28"/>
       <c r="I20" s="26" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="J20" s="27"/>
       <c r="K20" s="27"/>
@@ -4261,7 +4399,7 @@
       <c r="G22" s="27"/>
       <c r="H22" s="28"/>
       <c r="I22" s="26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="J22" s="27"/>
       <c r="K22" s="27"/>
@@ -4345,7 +4483,7 @@
       <c r="G24" s="27"/>
       <c r="H24" s="28"/>
       <c r="I24" s="26" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="J24" s="27"/>
       <c r="K24" s="27"/>
@@ -4415,14 +4553,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="I23:Y23"/>
-    <mergeCell ref="Z23:AH23"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:Y21"/>
-    <mergeCell ref="Z21:AH21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:Y22"/>
-    <mergeCell ref="Z22:AH22"/>
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="I24:Y24"/>
     <mergeCell ref="Z24:AH24"/>
@@ -4439,6 +4569,14 @@
     <mergeCell ref="I20:Y20"/>
     <mergeCell ref="Z20:AH20"/>
     <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:Y23"/>
+    <mergeCell ref="Z23:AH23"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:Y21"/>
+    <mergeCell ref="Z21:AH21"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:Y22"/>
+    <mergeCell ref="Z22:AH22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
@@ -4454,7 +4592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AW8"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -4470,381 +4608,383 @@
       </c>
     </row>
     <row r="3" spans="1:49" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39" t="s">
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39" t="s">
+      <c r="J3" s="37"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39" t="s">
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="39" t="s">
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AE3" s="39"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="39"/>
-      <c r="AJ3" s="39"/>
-      <c r="AK3" s="39"/>
-      <c r="AL3" s="39"/>
-      <c r="AM3" s="39"/>
-      <c r="AN3" s="39" t="s">
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="39"/>
-      <c r="AP3" s="39"/>
-      <c r="AQ3" s="39"/>
-      <c r="AR3" s="39"/>
-      <c r="AS3" s="39"/>
-      <c r="AT3" s="39"/>
-      <c r="AU3" s="39"/>
-      <c r="AV3" s="39"/>
-      <c r="AW3" s="39"/>
+      <c r="AO3" s="37"/>
+      <c r="AP3" s="37"/>
+      <c r="AQ3" s="37"/>
+      <c r="AR3" s="37"/>
+      <c r="AS3" s="37"/>
+      <c r="AT3" s="37"/>
+      <c r="AU3" s="37"/>
+      <c r="AV3" s="37"/>
+      <c r="AW3" s="37"/>
     </row>
     <row r="4" spans="1:49" ht="120" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="35"/>
+      <c r="C4" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="37" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="38" t="s">
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="37" t="s">
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AG4" s="37"/>
-      <c r="AH4" s="37"/>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37" t="s">
+      <c r="AE4" s="35"/>
+      <c r="AF4" s="35"/>
+      <c r="AG4" s="35"/>
+      <c r="AH4" s="35"/>
+      <c r="AI4" s="35"/>
+      <c r="AJ4" s="35"/>
+      <c r="AK4" s="35"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="35"/>
+      <c r="AN4" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="37"/>
-      <c r="AW4" s="37"/>
+      <c r="AO4" s="35"/>
+      <c r="AP4" s="35"/>
+      <c r="AQ4" s="35"/>
+      <c r="AR4" s="35"/>
+      <c r="AS4" s="35"/>
+      <c r="AT4" s="35"/>
+      <c r="AU4" s="35"/>
+      <c r="AV4" s="35"/>
+      <c r="AW4" s="35"/>
     </row>
     <row r="5" spans="1:49" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38" t="s">
+      <c r="B5" s="35"/>
+      <c r="C5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="37" t="s">
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="38" t="s">
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="37" t="s">
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="AE5" s="37"/>
-      <c r="AF5" s="37"/>
-      <c r="AG5" s="37"/>
-      <c r="AH5" s="37"/>
-      <c r="AI5" s="37"/>
-      <c r="AJ5" s="37"/>
-      <c r="AK5" s="37"/>
-      <c r="AL5" s="37"/>
-      <c r="AM5" s="37"/>
-      <c r="AN5" s="37" t="s">
+      <c r="AE5" s="35"/>
+      <c r="AF5" s="35"/>
+      <c r="AG5" s="35"/>
+      <c r="AH5" s="35"/>
+      <c r="AI5" s="35"/>
+      <c r="AJ5" s="35"/>
+      <c r="AK5" s="35"/>
+      <c r="AL5" s="35"/>
+      <c r="AM5" s="35"/>
+      <c r="AN5" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="AO5" s="37"/>
-      <c r="AP5" s="37"/>
-      <c r="AQ5" s="37"/>
-      <c r="AR5" s="37"/>
-      <c r="AS5" s="37"/>
-      <c r="AT5" s="37"/>
-      <c r="AU5" s="37"/>
-      <c r="AV5" s="37"/>
-      <c r="AW5" s="37"/>
+      <c r="AO5" s="35"/>
+      <c r="AP5" s="35"/>
+      <c r="AQ5" s="35"/>
+      <c r="AR5" s="35"/>
+      <c r="AS5" s="35"/>
+      <c r="AT5" s="35"/>
+      <c r="AU5" s="35"/>
+      <c r="AV5" s="35"/>
+      <c r="AW5" s="35"/>
     </row>
     <row r="6" spans="1:49" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="36" t="s">
+      <c r="B6" s="38"/>
+      <c r="C6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="36"/>
-      <c r="Q6" s="36"/>
-      <c r="R6" s="35" t="s">
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="36" t="s">
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="36"/>
-      <c r="AA6" s="36"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="35" t="s">
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="AE6" s="35"/>
-      <c r="AF6" s="35"/>
-      <c r="AG6" s="35"/>
-      <c r="AH6" s="35"/>
-      <c r="AI6" s="35"/>
-      <c r="AJ6" s="35"/>
-      <c r="AK6" s="35"/>
-      <c r="AL6" s="35"/>
-      <c r="AM6" s="35"/>
-      <c r="AN6" s="35" t="s">
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AG6" s="38"/>
+      <c r="AH6" s="38"/>
+      <c r="AI6" s="38"/>
+      <c r="AJ6" s="38"/>
+      <c r="AK6" s="38"/>
+      <c r="AL6" s="38"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AO6" s="35"/>
-      <c r="AP6" s="35"/>
-      <c r="AQ6" s="35"/>
-      <c r="AR6" s="35"/>
-      <c r="AS6" s="35"/>
-      <c r="AT6" s="35"/>
-      <c r="AU6" s="35"/>
-      <c r="AV6" s="35"/>
-      <c r="AW6" s="35"/>
+      <c r="AO6" s="38"/>
+      <c r="AP6" s="38"/>
+      <c r="AQ6" s="38"/>
+      <c r="AR6" s="38"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="38"/>
+      <c r="AU6" s="38"/>
+      <c r="AV6" s="38"/>
+      <c r="AW6" s="38"/>
     </row>
     <row r="7" spans="1:49" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="36"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="35"/>
-      <c r="AE7" s="35"/>
-      <c r="AF7" s="35"/>
-      <c r="AG7" s="35"/>
-      <c r="AH7" s="35"/>
-      <c r="AI7" s="35"/>
-      <c r="AJ7" s="35"/>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
-      <c r="AN7" s="35"/>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="35"/>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="35"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
     </row>
     <row r="8" spans="1:49" ht="120" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="36"/>
-      <c r="Q8" s="36"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="36"/>
-      <c r="V8" s="36"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="36"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="35"/>
-      <c r="AE8" s="35"/>
-      <c r="AF8" s="35"/>
-      <c r="AG8" s="35"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="35"/>
-      <c r="AJ8" s="35"/>
-      <c r="AK8" s="35"/>
-      <c r="AL8" s="35"/>
-      <c r="AM8" s="35"/>
-      <c r="AN8" s="35"/>
-      <c r="AO8" s="35"/>
-      <c r="AP8" s="35"/>
-      <c r="AQ8" s="35"/>
-      <c r="AR8" s="35"/>
-      <c r="AS8" s="35"/>
-      <c r="AT8" s="35"/>
-      <c r="AU8" s="35"/>
-      <c r="AV8" s="35"/>
-      <c r="AW8" s="35"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+      <c r="Y8" s="39"/>
+      <c r="Z8" s="39"/>
+      <c r="AA8" s="39"/>
+      <c r="AB8" s="39"/>
+      <c r="AC8" s="39"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="AD5:AM5"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="I5:Q5"/>
-    <mergeCell ref="AN3:AW3"/>
-    <mergeCell ref="I3:Q3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="AD3:AM3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="AD8:AM8"/>
+    <mergeCell ref="AN8:AW8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:Q6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U6:AC6"/>
+    <mergeCell ref="AD6:AM6"/>
+    <mergeCell ref="AN6:AW6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:Q8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U8:AC8"/>
     <mergeCell ref="AN4:AW4"/>
     <mergeCell ref="AN5:AW5"/>
     <mergeCell ref="U5:AC5"/>
@@ -4861,20 +5001,18 @@
     <mergeCell ref="R4:T4"/>
     <mergeCell ref="AD4:AM4"/>
     <mergeCell ref="U4:AC4"/>
-    <mergeCell ref="AD8:AM8"/>
-    <mergeCell ref="AN8:AW8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:Q6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="U6:AC6"/>
-    <mergeCell ref="AD6:AM6"/>
-    <mergeCell ref="AN6:AW6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:Q8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U8:AC8"/>
+    <mergeCell ref="AN3:AW3"/>
+    <mergeCell ref="I3:Q3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="AD3:AM3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="U3:AC3"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="AD5:AM5"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="I5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
